--- a/# Cron.xlsx
+++ b/# Cron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Fundamentos" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +321,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,8 +333,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,36 +628,35 @@
     <col min="12" max="13" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="N2" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="N2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5">
         <f>SUM(E3:K16)/98</f>
-        <v>0.12244897959183673</v>
+        <v>0.23469387755102042</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -703,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -726,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -761,31 +763,31 @@
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -793,10 +795,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -815,11 +817,11 @@
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>15</v>
       </c>
       <c r="E7" s="2">
@@ -844,11 +846,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>20</v>
       </c>
       <c r="E8" s="2">
@@ -873,7 +875,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -902,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -931,7 +936,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -960,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -989,7 +997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1018,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1047,7 +1058,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -1076,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -1105,7 +1119,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -1113,7 +1130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -1121,7 +1138,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -1129,7 +1149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -1137,7 +1157,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -1145,7 +1168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -1153,7 +1176,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -1161,7 +1187,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -1223,7 +1249,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1282,15 +1309,15 @@
         <f>SUM(E3:K16)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1897,7 +1924,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +1954,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1961,7 +1988,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1978,7 +2005,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2029,7 +2056,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">

--- a/# Cron.xlsx
+++ b/# Cron.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Fundamentos" sheetId="1" r:id="rId1"/>
@@ -324,6 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,9 +335,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,32 +631,32 @@
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="N2" s="8" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5">
         <f>SUM(E3:K16)/98</f>
-        <v>0.23469387755102042</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -756,6 +756,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -801,23 +804,26 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -825,25 +831,25 @@
         <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -854,96 +860,96 @@
         <v>20</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>25</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>30</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>35</v>
       </c>
       <c r="E11" s="2">
@@ -969,10 +975,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>40</v>
       </c>
       <c r="E12" s="2">
@@ -998,13 +1004,13 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>45</v>
       </c>
       <c r="E13" s="2">
@@ -1030,10 +1036,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>50</v>
       </c>
       <c r="E14" s="2">
@@ -1059,13 +1065,13 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>55</v>
       </c>
       <c r="E15" s="2">
@@ -1309,15 +1315,15 @@
         <f>SUM(E3:K16)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
